--- a/Benchmarking Graphs/ThreadComparison.xlsx
+++ b/Benchmarking Graphs/ThreadComparison.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="18195" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,8 +43,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,8 +80,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,7 +612,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1" title="2 Threads"/>
+        <xdr:cNvPr id="2" name="2 Threads" title="2 Threads"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -633,7 +642,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3" title="4 Threads"/>
+        <xdr:cNvPr id="4" name="4 Threads" title="4 Threads"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -663,7 +672,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4" title="6 Threads"/>
+        <xdr:cNvPr id="5" name="6 Threads" title="6 Threads"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -693,7 +702,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5" title="8 Threads"/>
+        <xdr:cNvPr id="6" name="8 Threads" title="8 Threads"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1001,7 +1010,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,18 +1020,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2">
@@ -1033,7 +1042,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3">
@@ -1041,7 +1050,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4">
@@ -1049,7 +1058,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5">
@@ -1057,18 +1066,18 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
@@ -1076,7 +1085,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B9">
@@ -1084,7 +1093,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10">
@@ -1092,7 +1101,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B11">
@@ -1100,18 +1109,18 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B14">
@@ -1119,7 +1128,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B15">
@@ -1127,7 +1136,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B16">
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B17">
@@ -1143,18 +1152,18 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B20">
@@ -1162,7 +1171,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B21">
@@ -1170,7 +1179,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B22">
@@ -1178,7 +1187,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B23">
